--- a/우럭아왜우럭 데이터 설계.xlsx
+++ b/우럭아왜우럭 데이터 설계.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\바탕 화면\jinha\우럭아왜우럭\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C41817-84E2-4745-B192-4A75BFAD18D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2138CE-64FD-43D2-AF01-41703373A153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3950" yWindow="2190" windowWidth="32370" windowHeight="15410" xr2:uid="{86FC0222-E2F1-4A7C-8EEA-8036CC360FDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
   </bookViews>
   <sheets>
     <sheet name="기획데이터_스키마" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="435">
   <si>
     <t>얕은 연안</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1123,9 +1123,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -1133,9 +1130,6 @@
   </si>
   <si>
     <t>27</t>
-  </si>
-  <si>
-    <t>27</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1185,371 +1179,353 @@
     <t>22</t>
   </si>
   <si>
+    <t>weight_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_item_data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가벼운 추</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무게감 있는 추</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무거운 추</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건조 지렁이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미꾸라지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>winding_amount</t>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>weight_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_fish_drop_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>97</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>94</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>84</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>65</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>170</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce_durability_case_failure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce_durability_case_failure</t>
+  </si>
+  <si>
+    <t>채운 수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵의 consume_durability_per_meter에 %만큼 감소로 적용됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade_type_data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_type_data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce_fatigue_per_min</t>
+  </si>
+  <si>
+    <t>reduce_durability_per_meter</t>
+  </si>
+  <si>
+    <t>reduce_durability_per_min</t>
+  </si>
+  <si>
+    <t>reduce_durability_per_min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>800</t>
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>102</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>116</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>118</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_item_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누군가가 빠뜨린 낚싯대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자의 낚싯대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33333</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>900</t>
   </si>
   <si>
     <t>2000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_item_data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가벼운 추</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무게감 있는 추</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무거운 추</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>건조 지렁이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미꾸라지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>떡밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>winding_amount</t>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>55</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_fish_drop_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>99</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>98</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>97</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>94</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>91</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>84</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>65</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>68</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>75</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>170</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce_durability_case_failure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>900</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce_durability_case_failure</t>
-  </si>
-  <si>
-    <t>채운 수량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.95</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.85</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵의 consume_durability_per_meter에 %만큼 감소로 적용됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade_type_data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_type_data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduce_fatigue_per_min</t>
-  </si>
-  <si>
-    <t>reduce_durability_per_meter</t>
-  </si>
-  <si>
-    <t>reduce_durability_per_min</t>
-  </si>
-  <si>
-    <t>reduce_durability_per_min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>116</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>118</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>125</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>need_item_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>누군가가 빠뜨린 낚싯대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발자의 낚싯대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>33333</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
   <si>
     <t>10000</t>
@@ -1744,6 +1720,14 @@
   </si>
   <si>
     <t>날씨 타입별로 테이블을 다르게 하지 말고 깔끔하게 합치기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2359,27 +2343,27 @@
   <dimension ref="A1:L150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.58203125" style="7"/>
+    <col min="2" max="2" width="26.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>102</v>
       </c>
@@ -2396,7 +2380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>97</v>
       </c>
@@ -2411,7 +2395,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="16" t="s">
         <v>106</v>
@@ -2424,15 +2408,15 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>194</v>
@@ -2448,7 +2432,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
         <v>195</v>
       </c>
@@ -2464,15 +2448,15 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>110</v>
@@ -2484,7 +2468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>111</v>
       </c>
@@ -2495,11 +2479,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>98</v>
       </c>
@@ -2513,7 +2497,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="16" t="s">
         <v>117</v>
@@ -2525,7 +2509,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="16" t="s">
         <v>118</v>
@@ -2537,7 +2521,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="16" t="s">
         <v>119</v>
@@ -2549,7 +2533,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="16" t="s">
         <v>185</v>
@@ -2561,12 +2545,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>99</v>
       </c>
@@ -2580,7 +2564,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
         <v>123</v>
       </c>
@@ -2591,7 +2575,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
         <v>127</v>
       </c>
@@ -2602,7 +2586,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
         <v>119</v>
       </c>
@@ -2613,7 +2597,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
         <v>185</v>
       </c>
@@ -2624,11 +2608,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>100</v>
       </c>
@@ -2642,7 +2626,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
         <v>131</v>
       </c>
@@ -2653,7 +2637,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
         <v>132</v>
       </c>
@@ -2664,7 +2648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
         <v>204</v>
       </c>
@@ -2675,7 +2659,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
         <v>203</v>
       </c>
@@ -2686,11 +2670,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>101</v>
       </c>
@@ -2707,9 +2691,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" s="17" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>107</v>
@@ -2718,7 +2702,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" s="17" t="s">
         <v>135</v>
       </c>
@@ -2729,7 +2713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B33" s="17" t="s">
         <v>136</v>
       </c>
@@ -2740,7 +2724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
         <v>137</v>
       </c>
@@ -2751,7 +2735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B35" s="17" t="s">
         <v>140</v>
       </c>
@@ -2762,7 +2746,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B36" s="17" t="s">
         <v>141</v>
       </c>
@@ -2773,10 +2757,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="17" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>109</v>
@@ -2787,10 +2771,10 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="17" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>109</v>
@@ -2801,7 +2785,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2809,7 +2793,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>244</v>
       </c>
@@ -2825,9 +2809,9 @@
       <c r="F40" s="4"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B41" s="17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>107</v>
@@ -2836,7 +2820,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="17" t="s">
         <v>110</v>
       </c>
@@ -2848,7 +2832,7 @@
       </c>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="17" t="s">
         <v>249</v>
       </c>
@@ -2861,7 +2845,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="17" t="s">
         <v>171</v>
       </c>
@@ -2874,13 +2858,13 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>207</v>
       </c>
@@ -2897,7 +2881,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B47" s="17" t="s">
         <v>210</v>
       </c>
@@ -2908,7 +2892,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="17" t="s">
         <v>110</v>
       </c>
@@ -2922,7 +2906,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B49" s="17" t="s">
         <v>194</v>
       </c>
@@ -2936,7 +2920,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" s="17" t="s">
         <v>213</v>
       </c>
@@ -2950,7 +2934,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B51" s="17" t="s">
         <v>171</v>
       </c>
@@ -2964,14 +2948,14 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>175</v>
       </c>
@@ -2988,7 +2972,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B54" s="17" t="s">
         <v>216</v>
       </c>
@@ -3002,7 +2986,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="17" t="s">
         <v>110</v>
@@ -3014,7 +2998,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="17" t="s">
         <v>194</v>
@@ -3029,7 +3013,7 @@
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="16" t="s">
         <v>219</v>
@@ -3044,7 +3028,7 @@
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="16" t="s">
         <v>220</v>
@@ -3059,7 +3043,7 @@
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="17" t="s">
         <v>218</v>
@@ -3074,7 +3058,7 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="17" t="s">
         <v>171</v>
@@ -3089,7 +3073,7 @@
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3097,7 +3081,7 @@
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>223</v>
       </c>
@@ -3114,10 +3098,10 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>107</v>
@@ -3129,7 +3113,7 @@
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="17" t="s">
         <v>110</v>
@@ -3144,7 +3128,7 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="16" t="s">
         <v>219</v>
@@ -3158,7 +3142,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="17" t="s">
         <v>171</v>
@@ -3173,7 +3157,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="16" t="s">
         <v>227</v>
@@ -3188,7 +3172,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="17" t="s">
         <v>228</v>
@@ -3203,7 +3187,7 @@
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3211,7 +3195,7 @@
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>229</v>
       </c>
@@ -3230,7 +3214,7 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B71" s="17" t="s">
         <v>233</v>
       </c>
@@ -3242,7 +3226,7 @@
       </c>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="17" t="s">
         <v>110</v>
@@ -3259,7 +3243,7 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="16" t="s">
         <v>219</v>
@@ -3275,7 +3259,7 @@
       <c r="G73" s="13"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="17" t="s">
         <v>171</v>
@@ -3292,7 +3276,7 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="16" t="s">
         <v>227</v>
@@ -3308,7 +3292,7 @@
       <c r="G75" s="13"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="17" t="s">
         <v>236</v>
@@ -3324,7 +3308,7 @@
       <c r="G76" s="13"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="17" t="s">
         <v>237</v>
@@ -3340,7 +3324,7 @@
       <c r="G77" s="13"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3348,7 +3332,7 @@
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
         <v>238</v>
       </c>
@@ -3362,7 +3346,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B80" s="17" t="s">
         <v>242</v>
       </c>
@@ -3373,7 +3357,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B81" s="17" t="s">
         <v>110</v>
       </c>
@@ -3384,7 +3368,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B82" s="16" t="s">
         <v>193</v>
       </c>
@@ -3395,7 +3379,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B83" s="16" t="s">
         <v>252</v>
       </c>
@@ -3406,7 +3390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
         <v>243</v>
       </c>
@@ -3417,10 +3401,10 @@
         <v>65</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B85" s="17" t="s">
         <v>171</v>
       </c>
@@ -3431,7 +3415,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="16" t="s">
         <v>227</v>
@@ -3451,7 +3435,7 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="16" t="s">
         <v>236</v>
@@ -3471,7 +3455,7 @@
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="16" t="s">
         <v>220</v>
@@ -3491,7 +3475,7 @@
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3505,7 +3489,7 @@
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>250</v>
       </c>
@@ -3527,7 +3511,7 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="17" t="s">
         <v>193</v>
@@ -3547,7 +3531,7 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="16" t="s">
         <v>252</v>
@@ -3567,7 +3551,7 @@
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="16" t="s">
         <v>182</v>
@@ -3587,7 +3571,7 @@
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="16" t="s">
         <v>150</v>
@@ -3607,7 +3591,7 @@
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3621,7 +3605,7 @@
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>251</v>
       </c>
@@ -3643,7 +3627,7 @@
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="16" t="s">
         <v>149</v>
@@ -3663,7 +3647,7 @@
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="16" t="s">
         <v>220</v>
@@ -3683,10 +3667,10 @@
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>109</v>
@@ -3703,10 +3687,10 @@
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="16" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>109</v>
@@ -3723,10 +3707,10 @@
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="16" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>109</v>
@@ -3735,7 +3719,7 @@
         <v>77</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -3745,7 +3729,7 @@
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="16" t="s">
         <v>200</v>
@@ -3765,7 +3749,7 @@
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3779,7 +3763,7 @@
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>151</v>
       </c>
@@ -3801,7 +3785,7 @@
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="16" t="s">
         <v>152</v>
@@ -3821,7 +3805,7 @@
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="16" t="s">
         <v>182</v>
@@ -3841,7 +3825,7 @@
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="16" t="s">
         <v>150</v>
@@ -3861,7 +3845,7 @@
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3875,7 +3859,7 @@
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>155</v>
       </c>
@@ -3896,7 +3880,7 @@
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="16" t="s">
         <v>146</v>
@@ -3916,7 +3900,7 @@
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B111" s="16" t="s">
         <v>164</v>
       </c>
@@ -3927,7 +3911,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B112" s="16" t="s">
         <v>135</v>
       </c>
@@ -3938,7 +3922,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B113" s="16" t="s">
         <v>147</v>
       </c>
@@ -3949,7 +3933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B114" s="16" t="s">
         <v>134</v>
       </c>
@@ -3960,7 +3944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B115" s="16" t="s">
         <v>166</v>
       </c>
@@ -3971,7 +3955,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B116" s="16" t="s">
         <v>167</v>
       </c>
@@ -3982,7 +3966,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B117" s="16" t="s">
         <v>169</v>
       </c>
@@ -3993,7 +3977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B118" s="16" t="s">
         <v>171</v>
       </c>
@@ -4004,10 +3988,10 @@
         <v>170</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B119" s="16" t="s">
         <v>113</v>
       </c>
@@ -4018,13 +4002,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B121" s="16" t="s">
         <v>134</v>
@@ -4033,10 +4017,10 @@
         <v>109</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B122" s="16" t="s">
         <v>145</v>
       </c>
@@ -4047,7 +4031,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B123" s="16" t="s">
         <v>164</v>
       </c>
@@ -4058,7 +4042,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B124" s="16" t="s">
         <v>135</v>
       </c>
@@ -4069,11 +4053,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>179</v>
       </c>
@@ -4095,7 +4079,7 @@
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="16" t="s">
         <v>119</v>
@@ -4115,7 +4099,7 @@
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="16" t="s">
         <v>189</v>
@@ -4135,7 +4119,7 @@
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="16" t="s">
         <v>190</v>
@@ -4155,7 +4139,7 @@
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="16" t="s">
         <v>185</v>
@@ -4175,25 +4159,25 @@
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="17" t="s">
         <v>158</v>
@@ -4205,7 +4189,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="17" t="s">
         <v>160</v>
@@ -4217,11 +4201,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="C135" s="4"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
         <v>186</v>
       </c>
@@ -4235,7 +4219,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B137" s="17" t="s">
         <v>187</v>
       </c>
@@ -4246,7 +4230,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B138" s="17" t="s">
         <v>192</v>
       </c>
@@ -4257,7 +4241,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B139" s="17" t="s">
         <v>191</v>
       </c>
@@ -4268,9 +4252,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B141" s="17" t="s">
         <v>176</v>
@@ -4282,7 +4266,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B142" s="16" t="s">
         <v>110</v>
       </c>
@@ -4295,7 +4279,7 @@
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B143" s="17" t="s">
         <v>153</v>
       </c>
@@ -4311,7 +4295,7 @@
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B144" s="16" t="s">
         <v>182</v>
       </c>
@@ -4327,7 +4311,7 @@
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B145" s="17" t="s">
         <v>150</v>
       </c>
@@ -4343,7 +4327,7 @@
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -4352,7 +4336,7 @@
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>174</v>
       </c>
@@ -4366,7 +4350,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="17" t="s">
         <v>176</v>
@@ -4378,7 +4362,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="17" t="s">
         <v>153</v>
@@ -4390,7 +4374,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="C150" s="4"/>
     </row>
@@ -4404,29 +4388,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432818FF-E177-414B-A1C4-487A95873834}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:J292"/>
+  <dimension ref="A2:J285"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.58203125" style="1"/>
+    <col min="12" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>97</v>
       </c>
@@ -4435,7 +4419,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>253</v>
       </c>
@@ -4446,7 +4430,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -4454,7 +4438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -4462,7 +4446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -4470,15 +4454,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>194</v>
       </c>
@@ -4489,7 +4473,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
@@ -4500,7 +4484,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>73</v>
       </c>
@@ -4511,7 +4495,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
@@ -4522,7 +4506,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4532,9 +4516,9 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4544,7 +4528,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>110</v>
       </c>
@@ -4558,7 +4542,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>73</v>
       </c>
@@ -4572,7 +4556,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>74</v>
       </c>
@@ -4586,7 +4570,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>255</v>
       </c>
@@ -4594,7 +4578,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>256</v>
       </c>
@@ -4602,7 +4586,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>257</v>
       </c>
@@ -4610,7 +4594,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>258</v>
       </c>
@@ -4618,7 +4602,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>259</v>
       </c>
@@ -4626,7 +4610,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>260</v>
       </c>
@@ -4634,7 +4618,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>82</v>
       </c>
@@ -4642,23 +4626,23 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>116</v>
       </c>
@@ -4675,7 +4659,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -4692,12 +4676,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>122</v>
       </c>
@@ -4714,7 +4698,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -4731,12 +4715,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>130</v>
       </c>
@@ -4753,7 +4737,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -4770,20 +4754,20 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>135</v>
@@ -4801,14 +4785,14 @@
         <v>141</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
@@ -4825,7 +4809,7 @@
         <v>60</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>48</v>
@@ -4837,7 +4821,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
@@ -4854,7 +4838,7 @@
         <v>74</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>50</v>
@@ -4866,7 +4850,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>45</v>
       </c>
@@ -4883,7 +4867,7 @@
         <v>67</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>50</v>
@@ -4895,7 +4879,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>67</v>
       </c>
@@ -4912,7 +4896,7 @@
         <v>61</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>51</v>
@@ -4924,20 +4908,20 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>245</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>110</v>
@@ -4949,12 +4933,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>44</v>
@@ -4968,12 +4952,12 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>44</v>
@@ -4987,12 +4971,12 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>44</v>
@@ -5006,15 +4990,15 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>208</v>
       </c>
@@ -5034,18 +5018,18 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>42</v>
@@ -5054,18 +5038,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>48</v>
@@ -5074,18 +5058,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>49</v>
@@ -5094,16 +5078,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>175</v>
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>214</v>
       </c>
@@ -5123,13 +5107,13 @@
         <v>220</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>73</v>
       </c>
@@ -5140,7 +5124,7 @@
         <v>61</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>73</v>
@@ -5152,12 +5136,12 @@
         <v>49</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>9</v>
@@ -5166,7 +5150,7 @@
         <v>61</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>74</v>
@@ -5178,10 +5162,10 @@
         <v>50</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>255</v>
       </c>
@@ -5192,7 +5176,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>45</v>
@@ -5201,13 +5185,13 @@
         <v>59</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>256</v>
       </c>
@@ -5218,7 +5202,7 @@
         <v>61</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>73</v>
@@ -5230,10 +5214,10 @@
         <v>51</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>257</v>
       </c>
@@ -5244,22 +5228,22 @@
         <v>61</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>258</v>
       </c>
@@ -5270,22 +5254,22 @@
         <v>61</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>92</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>259</v>
       </c>
@@ -5296,22 +5280,22 @@
         <v>61</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>260</v>
       </c>
@@ -5322,22 +5306,22 @@
         <v>61</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>262</v>
       </c>
@@ -5348,7 +5332,7 @@
         <v>61</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>45</v>
@@ -5360,20 +5344,20 @@
         <v>93</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>224</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>110</v>
@@ -5388,10 +5372,10 @@
         <v>227</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>73</v>
       </c>
@@ -5405,18 +5389,18 @@
         <v>73</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>69</v>
@@ -5428,16 +5412,16 @@
         <v>73</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>255</v>
       </c>
@@ -5451,16 +5435,16 @@
         <v>73</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>256</v>
       </c>
@@ -5474,16 +5458,16 @@
         <v>74</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>257</v>
       </c>
@@ -5497,16 +5481,16 @@
         <v>74</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>258</v>
       </c>
@@ -5520,16 +5504,16 @@
         <v>74</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>259</v>
       </c>
@@ -5543,16 +5527,16 @@
         <v>45</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>260</v>
       </c>
@@ -5566,16 +5550,16 @@
         <v>45</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>262</v>
       </c>
@@ -5589,24 +5573,24 @@
         <v>45</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>230</v>
       </c>
@@ -5632,7 +5616,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>73</v>
       </c>
@@ -5646,10 +5630,10 @@
         <v>73</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>49</v>
@@ -5658,9 +5642,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>261</v>
@@ -5672,10 +5656,10 @@
         <v>73</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>49</v>
@@ -5684,7 +5668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>255</v>
       </c>
@@ -5698,10 +5682,10 @@
         <v>73</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>49</v>
@@ -5710,7 +5694,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>256</v>
       </c>
@@ -5724,7 +5708,7 @@
         <v>74</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>64</v>
@@ -5736,7 +5720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>257</v>
       </c>
@@ -5750,19 +5734,19 @@
         <v>74</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>258</v>
       </c>
@@ -5776,19 +5760,19 @@
         <v>74</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>259</v>
       </c>
@@ -5802,10 +5786,10 @@
         <v>45</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>42</v>
@@ -5814,7 +5798,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>260</v>
       </c>
@@ -5828,19 +5812,19 @@
         <v>45</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>262</v>
       </c>
@@ -5854,10 +5838,10 @@
         <v>45</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>42</v>
@@ -5866,15 +5850,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>239</v>
       </c>
@@ -5906,7 +5890,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>73</v>
       </c>
@@ -5917,7 +5901,7 @@
         <v>67</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>60</v>
@@ -5926,10 +5910,10 @@
         <v>45</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>49</v>
@@ -5938,9 +5922,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
@@ -5949,7 +5933,7 @@
         <v>67</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>73</v>
@@ -5958,10 +5942,10 @@
         <v>44</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>49</v>
@@ -5970,7 +5954,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>255</v>
       </c>
@@ -5981,7 +5965,7 @@
         <v>67</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>74</v>
@@ -5990,10 +5974,10 @@
         <v>68</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>49</v>
@@ -6002,7 +5986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>256</v>
       </c>
@@ -6013,7 +5997,7 @@
         <v>67</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>60</v>
@@ -6022,7 +6006,7 @@
         <v>42</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>64</v>
@@ -6034,7 +6018,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>257</v>
       </c>
@@ -6045,19 +6029,19 @@
         <v>67</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>48</v>
@@ -6066,7 +6050,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>258</v>
       </c>
@@ -6077,19 +6061,19 @@
         <v>67</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>48</v>
@@ -6098,7 +6082,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>259</v>
       </c>
@@ -6109,7 +6093,7 @@
         <v>67</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>60</v>
@@ -6121,16 +6105,16 @@
         <v>76</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>260</v>
       </c>
@@ -6141,28 +6125,28 @@
         <v>67</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>87</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>262</v>
       </c>
@@ -6173,7 +6157,7 @@
         <v>67</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>74</v>
@@ -6182,30 +6166,30 @@
         <v>49</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.45">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>47</v>
@@ -6214,10 +6198,10 @@
         <v>42</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>49</v>
@@ -6226,18 +6210,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>47</v>
@@ -6246,7 +6230,7 @@
         <v>47</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>47</v>
@@ -6258,15 +6242,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
         <v>110</v>
       </c>
@@ -6284,373 +6268,373 @@
       </c>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>304</v>
+        <v>73</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>304</v>
+        <v>73</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>304</v>
+        <v>73</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>304</v>
+        <v>73</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>255</v>
+      <c r="B121" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>304</v>
+        <v>73</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>255</v>
+      <c r="B124" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>304</v>
+        <v>73</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>255</v>
+      <c r="B127" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="15" t="s">
         <v>172</v>
       </c>
@@ -6664,19 +6648,25 @@
         <v>220</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H133" s="15" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I133" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="J133" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>73</v>
       </c>
@@ -6687,7 +6677,7 @@
         <v>47</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>52</v>
@@ -6701,8 +6691,14 @@
       <c r="H134" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I134" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>74</v>
       </c>
@@ -6710,10 +6706,10 @@
         <v>73</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>53</v>
@@ -6722,13 +6718,19 @@
         <v>42</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I135" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>45</v>
       </c>
@@ -6736,10 +6738,10 @@
         <v>74</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>64</v>
@@ -6748,13 +6750,19 @@
         <v>48</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I136" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>67</v>
       </c>
@@ -6765,7 +6773,7 @@
         <v>64</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>47</v>
@@ -6774,13 +6782,19 @@
         <v>49</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I137" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>44</v>
       </c>
@@ -6791,22 +6805,28 @@
         <v>53</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I138" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>68</v>
       </c>
@@ -6817,30 +6837,36 @@
         <v>52</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I139" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
         <v>110</v>
       </c>
@@ -6854,7 +6880,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>67</v>
       </c>
@@ -6865,11 +6891,11 @@
         <v>60</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>61</v>
       </c>
@@ -6880,11 +6906,11 @@
         <v>60</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>42</v>
       </c>
@@ -6895,25 +6921,25 @@
         <v>60</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="15" t="s">
         <v>145</v>
       </c>
@@ -6936,7 +6962,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>73</v>
       </c>
@@ -6950,18 +6976,18 @@
         <v>47</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>20</v>
@@ -6973,16 +6999,16 @@
         <v>50</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>255</v>
       </c>
@@ -6999,18 +7025,18 @@
         <v>86</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>256</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>61</v>
@@ -7019,16 +7045,16 @@
         <v>85</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>257</v>
       </c>
@@ -7051,7 +7077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>258</v>
       </c>
@@ -7068,13 +7094,13 @@
         <v>93</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>259</v>
       </c>
@@ -7097,7 +7123,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>260</v>
       </c>
@@ -7114,13 +7140,13 @@
         <v>50</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>262</v>
       </c>
@@ -7134,21 +7160,21 @@
         <v>83</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>272</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C158" s="1">
         <v>4</v>
@@ -7157,18 +7183,18 @@
         <v>52</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>27</v>
@@ -7183,18 +7209,18 @@
         <v>53</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C160" s="1">
         <v>4</v>
@@ -7206,15 +7232,15 @@
         <v>64</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>35</v>
@@ -7229,15 +7255,15 @@
         <v>52</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>28</v>
@@ -7252,15 +7278,15 @@
         <v>49</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>29</v>
@@ -7275,15 +7301,15 @@
         <v>84</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>30</v>
@@ -7295,18 +7321,18 @@
         <v>92</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>31</v>
@@ -7321,18 +7347,18 @@
         <v>47</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C166" s="1">
         <v>4</v>
@@ -7350,9 +7376,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>32</v>
@@ -7367,13 +7393,13 @@
         <v>52</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>273</v>
       </c>
@@ -7390,15 +7416,15 @@
         <v>64</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>34</v>
@@ -7413,15 +7439,15 @@
         <v>47</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>35</v>
@@ -7436,15 +7462,15 @@
         <v>52</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>36</v>
@@ -7459,27 +7485,27 @@
         <v>52</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="7"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="7"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
         <v>134</v>
       </c>
@@ -7493,12 +7519,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>48</v>
@@ -7507,12 +7533,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>48</v>
@@ -7521,12 +7547,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>48</v>
@@ -7535,12 +7561,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>48</v>
@@ -7549,12 +7575,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>48</v>
@@ -7563,12 +7589,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>42</v>
@@ -7577,12 +7603,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>42</v>
@@ -7591,7 +7617,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>73</v>
       </c>
@@ -7605,12 +7631,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>60</v>
@@ -7619,12 +7645,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>60</v>
@@ -7633,12 +7659,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>60</v>
@@ -7647,7 +7673,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>74</v>
       </c>
@@ -7661,7 +7687,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>74</v>
       </c>
@@ -7675,7 +7701,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>74</v>
       </c>
@@ -7689,7 +7715,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>74</v>
       </c>
@@ -7703,7 +7729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>74</v>
       </c>
@@ -7717,12 +7743,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>49</v>
@@ -7731,12 +7757,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>49</v>
@@ -7745,12 +7771,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>48</v>
@@ -7759,26 +7785,26 @@
         <v>52</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>42</v>
@@ -7787,12 +7813,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>42</v>
@@ -7801,12 +7827,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>42</v>
@@ -7815,12 +7841,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>60</v>
@@ -7829,12 +7855,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>60</v>
@@ -7843,12 +7869,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>60</v>
@@ -7857,7 +7883,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>45</v>
       </c>
@@ -7871,7 +7897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>45</v>
       </c>
@@ -7885,7 +7911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>45</v>
       </c>
@@ -7899,7 +7925,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>45</v>
       </c>
@@ -7913,7 +7939,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>45</v>
       </c>
@@ -7927,12 +7953,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>49</v>
@@ -7941,12 +7967,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>48</v>
@@ -7955,12 +7981,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>48</v>
@@ -7969,12 +7995,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>48</v>
@@ -7983,12 +8009,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>48</v>
@@ -7997,12 +8023,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>42</v>
@@ -8011,7 +8037,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>45</v>
       </c>
@@ -8026,12 +8052,12 @@
       </c>
       <c r="G212" s="4"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>60</v>
@@ -8040,12 +8066,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>60</v>
@@ -8054,12 +8080,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>60</v>
@@ -8068,7 +8094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>67</v>
       </c>
@@ -8082,12 +8108,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>51</v>
@@ -8096,7 +8122,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>67</v>
       </c>
@@ -8107,10 +8133,10 @@
         <v>51</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>67</v>
       </c>
@@ -8124,7 +8150,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>67</v>
       </c>
@@ -8138,7 +8164,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>67</v>
       </c>
@@ -8152,7 +8178,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>67</v>
       </c>
@@ -8166,7 +8192,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>67</v>
       </c>
@@ -8180,7 +8206,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>67</v>
       </c>
@@ -8194,7 +8220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>67</v>
       </c>
@@ -8208,12 +8234,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>42</v>
@@ -8222,7 +8248,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>67</v>
       </c>
@@ -8236,12 +8262,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>60</v>
@@ -8250,12 +8276,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>60</v>
@@ -8264,17 +8290,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="15" t="s">
         <v>145</v>
       </c>
@@ -8291,7 +8317,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>73</v>
       </c>
@@ -8302,13 +8328,13 @@
         <v>64</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>74</v>
       </c>
@@ -8319,13 +8345,13 @@
         <v>64</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>45</v>
       </c>
@@ -8336,13 +8362,13 @@
         <v>64</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E235" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>256</v>
       </c>
@@ -8353,13 +8379,13 @@
         <v>64</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>257</v>
       </c>
@@ -8370,13 +8396,13 @@
         <v>64</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>258</v>
       </c>
@@ -8387,13 +8413,13 @@
         <v>64</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>259</v>
       </c>
@@ -8404,13 +8430,13 @@
         <v>51</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>260</v>
       </c>
@@ -8421,13 +8447,13 @@
         <v>51</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>262</v>
       </c>
@@ -8438,13 +8464,13 @@
         <v>51</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>272</v>
       </c>
@@ -8455,15 +8481,15 @@
         <v>51</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>53</v>
@@ -8472,15 +8498,15 @@
         <v>51</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>53</v>
@@ -8489,15 +8515,15 @@
         <v>52</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>53</v>
@@ -8506,15 +8532,15 @@
         <v>52</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>53</v>
@@ -8523,15 +8549,15 @@
         <v>53</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>50</v>
@@ -8540,15 +8566,15 @@
         <v>53</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>50</v>
@@ -8557,15 +8583,15 @@
         <v>53</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>50</v>
@@ -8574,15 +8600,15 @@
         <v>53</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E249" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>50</v>
@@ -8591,15 +8617,15 @@
         <v>52</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>50</v>
@@ -8608,13 +8634,13 @@
         <v>52</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>273</v>
       </c>
@@ -8625,15 +8651,15 @@
         <v>52</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>50</v>
@@ -8642,15 +8668,15 @@
         <v>52</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>49</v>
@@ -8659,15 +8685,15 @@
         <v>52</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>49</v>
@@ -8676,472 +8702,353 @@
         <v>52</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A256" s="4" t="s">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A257" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A258" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B258" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B265" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C265" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D265" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E272" s="2"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="2"/>
+      <c r="J272" s="2"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2"/>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+      <c r="G274" s="2"/>
+      <c r="H274" s="2"/>
+      <c r="I274" s="2"/>
+      <c r="J274" s="2"/>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+      <c r="G275" s="2"/>
+      <c r="H275" s="2"/>
+      <c r="I275" s="2"/>
+      <c r="J275" s="2"/>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
+      <c r="J276" s="2"/>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A277" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C277" s="4"/>
+      <c r="D277" s="7"/>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A278" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B278" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D278" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E278" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E279" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D256" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A257" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D257" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A258" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D258" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E258" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A259" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D259" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E259" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A260" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D260" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E260" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A261" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D261" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A262" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D262" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E262" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A263" s="4"/>
-      <c r="B263" s="4"/>
-      <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
-      <c r="E263" s="4"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A264" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A265" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B265" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A266" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A267" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A268" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A269" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A271" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A272" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B272" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C272" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D272" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A273" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D273" s="1" t="s">
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A280" s="4"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="4"/>
+      <c r="D280" s="4"/>
+      <c r="E280" s="4"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A281" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A282" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A283" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A274" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A275" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A276" s="1" t="s">
+      <c r="B283" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A277" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A278" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A279" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E279" s="2"/>
-      <c r="H279" s="2"/>
-      <c r="I279" s="2"/>
-      <c r="J279" s="2"/>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A280" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E280" s="2"/>
-      <c r="F280" s="2"/>
-      <c r="G280" s="2"/>
-      <c r="H280" s="2"/>
-      <c r="I280" s="2"/>
-      <c r="J280" s="2"/>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A281" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
-      <c r="G281" s="2"/>
-      <c r="H281" s="2"/>
-      <c r="I281" s="2"/>
-      <c r="J281" s="2"/>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A282" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2"/>
-      <c r="I282" s="2"/>
-      <c r="J282" s="2"/>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2"/>
-      <c r="I283" s="2"/>
-      <c r="J283" s="2"/>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A284" s="11" t="s">
-        <v>303</v>
-      </c>
+      <c r="C283" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A284" s="4"/>
+      <c r="B284" s="4"/>
       <c r="C284" s="4"/>
-      <c r="D284" s="7"/>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A285" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B285" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C285" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D285" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="E285" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A286" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B286" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A287" s="4"/>
-      <c r="B287" s="4"/>
-      <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
-      <c r="E287" s="4"/>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A288" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A289" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B289" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C289" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A290" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A291" s="4"/>
-      <c r="B291" s="4"/>
-      <c r="C291" s="4"/>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A292" s="4"/>
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A285" s="4"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9155,28 +9062,26 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>103</v>
@@ -9192,12 +9097,12 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>109</v>
@@ -9205,7 +9110,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>115</v>
       </c>
@@ -9214,7 +9119,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>205</v>
       </c>
@@ -9223,7 +9128,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
         <v>144</v>
       </c>
@@ -9232,31 +9137,31 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>109</v>
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>107</v>
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>114</v>
       </c>
@@ -9270,7 +9175,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>113</v>
       </c>
@@ -9284,9 +9189,9 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>109</v>
@@ -9298,7 +9203,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>264</v>
       </c>
@@ -9312,7 +9217,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>265</v>
       </c>
@@ -9326,7 +9231,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -9335,237 +9240,237 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>176</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>153</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>172</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>145</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24"/>
     </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
         <v>110</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>176</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>153</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -9579,36 +9484,34 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>115</v>
@@ -9621,7 +9524,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -9636,21 +9539,21 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>114</v>
@@ -9659,7 +9562,7 @@
         <v>113</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>264</v>
@@ -9668,12 +9571,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>44</v>
@@ -9682,7 +9585,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>87</v>
@@ -9691,14 +9594,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>110</v>
@@ -9710,7 +9613,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -9724,7 +9627,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
@@ -9738,7 +9641,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -9752,7 +9655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
@@ -9766,7 +9669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
@@ -9780,7 +9683,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
@@ -9795,7 +9698,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -9810,7 +9713,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -9825,7 +9728,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
@@ -9840,7 +9743,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -9855,7 +9758,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -9870,7 +9773,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
@@ -9885,25 +9788,25 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>172</v>
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -9912,7 +9815,7 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
@@ -9921,54 +9824,54 @@
       </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>110</v>
@@ -9980,13 +9883,13 @@
         <v>153</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
@@ -9994,19 +9897,19 @@
         <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
@@ -10014,19 +9917,19 @@
         <v>74</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -10040,13 +9943,13 @@
         <v>73</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
@@ -10060,13 +9963,13 @@
         <v>73</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -10080,13 +9983,13 @@
         <v>73</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
@@ -10100,13 +10003,13 @@
         <v>73</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
@@ -10120,13 +10023,13 @@
         <v>73</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>73</v>
       </c>
@@ -10140,13 +10043,13 @@
         <v>73</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
@@ -10160,26 +10063,26 @@
         <v>73</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>73</v>
       </c>
@@ -10187,23 +10090,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
@@ -10211,24 +10114,24 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>73</v>
       </c>
@@ -10236,20 +10139,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>

--- a/우럭아왜우럭 데이터 설계.xlsx
+++ b/우럭아왜우럭 데이터 설계.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horse\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2138CE-64FD-43D2-AF01-41703373A153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7990A6-A36E-4B6C-BFFE-C2BFFD13E082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
+    <workbookView xWindow="5040" yWindow="75" windowWidth="23760" windowHeight="14820" activeTab="2" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
   </bookViews>
   <sheets>
     <sheet name="기획데이터_스키마" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="442">
   <si>
     <t>얕은 연안</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1719,15 +1719,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>날씨 타입별로 테이블을 다르게 하지 말고 깔끔하게 합치기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>40000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바지락살</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이트 릴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단단한 낚시줄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블 훅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1944,7 +1972,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2001,9 +2029,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2342,8 +2367,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4388,10 +4413,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432818FF-E177-414B-A1C4-487A95873834}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:J285"/>
+  <dimension ref="A2:J301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4400,8 +4425,8 @@
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
@@ -4507,19 +4532,18 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>441</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>353</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4529,12 +4553,10 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>111</v>
-      </c>
+      <c r="A15" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -4543,11 +4565,11 @@
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>264</v>
+      <c r="A16" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -4557,11 +4579,11 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>265</v>
+      <c r="A17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -4571,300 +4593,285 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-    </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D29" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E29" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B33" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D33" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E33" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B37" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D37" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E37" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-    </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B41" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D41" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E41" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F41" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G41" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H41" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I41" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="I42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>299</v>
@@ -4873,327 +4880,318 @@
         <v>50</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-    </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B48" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D48" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E48" s="15" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
+      <c r="A51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B54" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D54" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E54" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F54" s="15" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-    </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B62" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D62" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E62" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F62" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="G59" s="15" t="s">
+      <c r="G62" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H62" s="15" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>9</v>
@@ -5202,24 +5200,24 @@
         <v>61</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>9</v>
@@ -5228,24 +5226,24 @@
         <v>61</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>9</v>
@@ -5254,24 +5252,24 @@
         <v>61</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>312</v>
+        <v>59</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>92</v>
+        <v>309</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>9</v>
@@ -5280,24 +5278,24 @@
         <v>61</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>319</v>
+        <v>83</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>9</v>
@@ -5306,24 +5304,24 @@
         <v>61</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>9</v>
@@ -5332,144 +5330,156 @@
         <v>61</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>322</v>
+        <v>61</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>323</v>
+      <c r="A74" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>324</v>
+      <c r="A75" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>69</v>
@@ -5478,21 +5488,21 @@
         <v>46</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>69</v>
@@ -5501,21 +5511,21 @@
         <v>46</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>69</v>
@@ -5524,21 +5534,21 @@
         <v>46</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>69</v>
@@ -5547,21 +5557,21 @@
         <v>46</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>325</v>
+        <v>64</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>69</v>
@@ -5570,185 +5580,170 @@
         <v>46</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="11" t="s">
-        <v>229</v>
+      <c r="F82" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>237</v>
+      <c r="A83" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>45</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>297</v>
+        <v>42</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>261</v>
+        <v>440</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>315</v>
+        <v>439</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>333</v>
+        <v>92</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A86" s="4"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>42</v>
+      <c r="A87" s="11" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>314</v>
+      <c r="A88" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>261</v>
@@ -5757,24 +5752,24 @@
         <v>82</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>312</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>261</v>
@@ -5783,24 +5778,24 @@
         <v>82</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>327</v>
+        <v>64</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>261</v>
@@ -5815,21 +5810,21 @@
         <v>295</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>313</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>261</v>
+        <v>438</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>82</v>
@@ -5838,10 +5833,10 @@
         <v>45</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>295</v>
+        <v>439</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>42</v>
@@ -6189,7 +6184,7 @@
         <v>67</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>60</v>
+        <v>432</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>47</v>
@@ -6221,7 +6216,7 @@
         <v>67</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>74</v>
+        <v>432</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>47</v>
@@ -6580,7 +6575,7 @@
         <v>262</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>345</v>
@@ -6597,7 +6592,7 @@
         <v>262</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>297</v>
@@ -6614,7 +6609,7 @@
         <v>262</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>255</v>
@@ -6823,7 +6818,7 @@
         <v>73</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -9007,48 +9002,310 @@
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A280" s="4"/>
-      <c r="B280" s="4"/>
-      <c r="C280" s="4"/>
-      <c r="D280" s="4"/>
-      <c r="E280" s="4"/>
+      <c r="A280" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A281" s="9" t="s">
+      <c r="A281" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B293" s="7"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A282" s="15" t="s">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B282" s="15" t="s">
+      <c r="B295" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="C295" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A283" s="4" t="s">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="B296" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C283" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A284" s="4"/>
-      <c r="B284" s="4"/>
-      <c r="C284" s="4"/>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A285" s="4"/>
-      <c r="B285" s="4"/>
-      <c r="C285" s="4"/>
+      <c r="C296" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9060,9 +9317,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938946F6-BDA6-473C-A293-30E2F737EEDB}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9083,10 +9342,10 @@
       <c r="A2" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -9344,7 +9603,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
+      <c r="B28" s="23"/>
     </row>
     <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
@@ -9382,7 +9641,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>410</v>
       </c>
@@ -9390,7 +9649,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>411</v>
       </c>
@@ -9398,10 +9657,10 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>426</v>
       </c>
@@ -9412,7 +9671,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>280</v>
       </c>
@@ -9420,57 +9679,43 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="2" t="s">
+      <c r="C39" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="16" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="C40" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+      <c r="C41" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="s">
-        <v>418</v>
+      <c r="C42" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -9482,9 +9727,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94272C64-D2EF-471C-8877-7B2C51858195}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9549,13 +9796,13 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>407</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -10071,15 +10318,21 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="15" t="s">
         <v>425</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -10089,76 +10342,15 @@
       <c r="B48" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>68</v>
-      </c>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
